--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,109 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B02C477-721A-4978-B17A-99C465FB8B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="k" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kl" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
-  <si>
-    <t>Tooth</t>
-  </si>
-  <si>
-    <t>Upper Value</t>
-  </si>
-  <si>
-    <t>Upper Confidence</t>
-  </si>
-  <si>
-    <t>Central Value</t>
-  </si>
-  <si>
-    <t>Central Confidence</t>
-  </si>
-  <si>
-    <t>Lower Value</t>
-  </si>
-  <si>
-    <t>Lower Confidence</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A3_5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -424,145 +409,721 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Upper Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upper Confidence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Central Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Central Confidence</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lower Value</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lower Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.2</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0.9</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.2</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0.1</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>21</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Upper Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upper Confidence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Central Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Central Confidence</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lower Value</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lower Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Upper Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upper Confidence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Central Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Central Confidence</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lower Value</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lower Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F604D-180A-4598-B7C5-E12E64078A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4873FBF-6003-4E29-A158-6BC6859BBAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4873FBF-6003-4E29-A158-6BC6859BBAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADDE894-E54B-465B-BBEA-CF6AD5ABDCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADDE894-E54B-465B-BBEA-CF6AD5ABDCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7773E97F-BB22-4BD6-838F-5158C3C6446F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-52560" yWindow="4800" windowWidth="14340" windowHeight="8145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="ly" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Tooth</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1,  ,  </t>
   </si>
 </sst>
 </file>
@@ -451,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -606,4 +610,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-52560" yWindow="4800" windowWidth="14340" windowHeight="8145" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ly" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="k" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="k_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ly" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="k" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="k_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="h" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1356,4 +1357,652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tooth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Upper Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Upper Confidence</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Central Value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Central Confidence</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lower Value</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Lower Confidence</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A3_5</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A3,  ,  </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A2,  ,  </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A1,  ,  </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1, 0.0, 0.0</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>